--- a/data/142/STANOR/08518 Unemployed persons.xlsx
+++ b/data/142/STANOR/08518 Unemployed persons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <x:si>
     <x:t>08518: Unemployed persons, by quarter, contents, sex and age</x:t>
   </x:si>
@@ -628,19 +628,22 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>From 2018, a new estimation method has been applied, the figures have been revised back to 2006. For more information, see separate &lt;a href='https://www.ssb.no/arbeid-og-lonn/artikler-og-publikasjoner/new-estimation-methodology-for-the-norwegian-labour-force-survey'&gt; article &lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
-    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. See About the statistics for more information about the changes that have been made.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. Thue use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people. See About the statistics for more information.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Unemployed (1 000 persons):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211028 08:00</x:t>
+    <x:t>20220127 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Unemployed (per cent):</x:t>
@@ -1116,15 +1119,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C262"/>
+  <x:dimension ref="A1:C263"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.850625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.990625" style="0" customWidth="1"/>
+    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
@@ -3345,9 +3346,15 @@
         <x:v>4.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="206" spans="1:3">
-      <x:c r="A206" s="5" t="s">
+    <x:row r="205" spans="1:3">
+      <x:c r="A205" s="2" t="s">
         <x:v>204</x:v>
+      </x:c>
+      <x:c r="B205" s="3" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C205" s="4" t="n">
+        <x:v>3.4</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:3">
@@ -3355,8 +3362,8 @@
         <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="209" spans="1:3">
-      <x:c r="A209" s="0" t="s">
+    <x:row r="208" spans="1:3">
+      <x:c r="A208" s="5" t="s">
         <x:v>206</x:v>
       </x:c>
     </x:row>
@@ -3377,12 +3384,12 @@
     </x:row>
     <x:row r="213" spans="1:3">
       <x:c r="A213" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="215" spans="1:3">
-      <x:c r="A215" s="0" t="s">
         <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:3">
+      <x:c r="A214" s="0" t="s">
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:3">
@@ -3390,19 +3397,19 @@
         <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="218" spans="1:3">
-      <x:c r="A218" s="0" t="s">
+    <x:row r="217" spans="1:3">
+      <x:c r="A217" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:3">
       <x:c r="A219" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:3">
       <x:c r="A220" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:3">
@@ -3415,8 +3422,8 @@
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="224" spans="1:3">
-      <x:c r="A224" s="0" t="s">
+    <x:row r="223" spans="1:3">
+      <x:c r="A223" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
     </x:row>
@@ -3430,8 +3437,8 @@
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="228" spans="1:3">
-      <x:c r="A228" s="0" t="s">
+    <x:row r="227" spans="1:3">
+      <x:c r="A227" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
     </x:row>
@@ -3445,34 +3452,34 @@
         <x:v>221</x:v>
       </x:c>
     </x:row>
-    <x:row r="234" spans="1:3">
-      <x:c r="A234" s="0" t="s">
+    <x:row r="231" spans="1:3">
+      <x:c r="A231" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
     </x:row>
-    <x:row r="236" spans="1:3">
-      <x:c r="A236" s="0" t="s">
+    <x:row r="235" spans="1:3">
+      <x:c r="A235" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:3">
       <x:c r="A237" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:3">
       <x:c r="A238" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:3">
       <x:c r="A239" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:3">
       <x:c r="A240" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:3">
@@ -3482,51 +3489,51 @@
     </x:row>
     <x:row r="242" spans="1:3">
       <x:c r="A242" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:3">
       <x:c r="A243" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:3">
       <x:c r="A244" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:3">
       <x:c r="A245" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="247" spans="1:3">
-      <x:c r="A247" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:3">
+      <x:c r="A246" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:3">
       <x:c r="A248" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:3">
       <x:c r="A249" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:3">
       <x:c r="A250" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:3">
       <x:c r="A251" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="258" spans="1:3">
-      <x:c r="A258" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:3">
+      <x:c r="A252" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
     </x:row>
@@ -3535,8 +3542,8 @@
         <x:v>231</x:v>
       </x:c>
     </x:row>
-    <x:row r="261" spans="1:3">
-      <x:c r="A261" s="0" t="s">
+    <x:row r="260" spans="1:3">
+      <x:c r="A260" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
     </x:row>
@@ -3545,7 +3552,16 @@
         <x:v>233</x:v>
       </x:c>
     </x:row>
+    <x:row r="263" spans="1:3">
+      <x:c r="A263" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A207:C207"/>
+    <x:mergeCell ref="A208:C208"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
